--- a/ocms/src/test/resources/TestData/ChatInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatInteractionReportData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1AA3C-5BBA-4834-BB0A-826795EBA0B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="4740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
-    <sheet name="ShowDateRange" sheetId="4" r:id="rId2"/>
+    <sheet name="ShowDateRange" sheetId="8" r:id="rId2"/>
     <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
   <si>
     <t>Report Channel</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -58,12 +56,123 @@
   </si>
   <si>
     <t>OCM Chat Interaction Report</t>
+  </si>
+  <si>
+    <t>22-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>S1234567A</t>
+  </si>
+  <si>
+    <t>Chat End Reason</t>
+  </si>
+  <si>
+    <t>append</t>
+  </si>
+  <si>
+    <t>SessionTimedOut</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>Session ID</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,9 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,8 +485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -384,13 +494,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,19 +514,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -425,11 +542,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,27 +843,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -479,19 +871,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,16 +903,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -527,12 +920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,27 +947,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -582,23 +975,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,76 +1008,211 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/ChatInteractionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/ChatInteractionReportData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="4740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="4740" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="51">
   <si>
     <t>Report Channel</t>
   </si>
@@ -167,6 +167,93 @@
   </si>
   <si>
     <t>87</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-05-2020 00:00:00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-2020 00:00:00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [SessionID] as [Session ID],M.[IDENTIFICATION] as [Identification],M.[CHANNEL] as [Channel],
+FORMAT([dbo].[VARCHARTODATETIME](M.StartDateTime),'dd/MM/yyyy HH:mm:ss') as [Start Date Time],
+FORMAT([dbo].[VARCHARTODATETIME](M.EndDateTime),'dd/MM/yyyy HH:mm:ss') as [End Date Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),DURATIONTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),DURATIONTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),  DURATIONTIME % 60), 2)) as [Duration],
+M.[AGENTID] as [Agent ID],M.[CALLBACK] as[CallBack],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.QUEUEWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.QUEUEWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.QUEUEWAITTIME % 60), 2)) as [Queue Wait Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.AGENTWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.AGENTWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.AGENTWAITTIME % 60), 2)) as [Agent Wait Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.[USERWAITTIME] /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.[USERWAITTIME] /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.[USERWAITTIME] % 60), 2)) as [User Wait Time],
+isnull (M.[CHATENDREASON], '') as [Chat End Reason], ' ' as[ ]
+--[ChatBotStartDateTime],[ChatBotEndDateTime],[IntentName],[SegmentCode],[SubSegmentCode], [IsChatConferenced],[IsChatTransfered], [CustEntType],[KasistoSessionID],[ReportDateTime] 
+from (SELECT DISTINCT  H.SESSIONID,H.ID,H.CIF AS IDENTIFICATION,INTDATETIME.StartDateTime,INTDATETIME.EndDateTime,
+   INTDATETIME.StartDateTime as [ChatBotStartDateTime],INTDATETIME.EndDateTime as [ChatBotEndDateTime],INTENTNAME ,
+   (CASE WHEN (Isnull(TabCallback.CallbackCount,0))=0 THEN 'No' ELSE 'Yes' END) AS CALLBACK, 
+   isnull((DATEDIFF(SECOND,convert(datetime,stuff(stuff(stuff(INTDATETIME.StartDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')),
+   convert(datetime,stuff(stuff(stuff(INTDURTIME.DurEndDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')))),0) AS DURATIONTIME,
+    ISCHATTRANSFERED,ISCHATCONFERENCED,  I.AgentID AS AGENTID,OTHERDATA as OTHERDATA,Isnull(QueueTime,0) AS QUEUEWAITTIME,
+    AGENTWAITTIME,USERWAITTIME, I.SUBCHANNEL AS CHANNEL, INTDURTIME.CHATENDREASON
+   FROM GBL_INTERACTIONHISTORY H with(nolock) 
+   LEFT JOIN TMAC_Interactions I with(nolock)ON I.SessionID= H.SessionID
+   LEFT JOIN GBL_INTENTMAPPING M with(nolock) on H.SessionID = M.SessionID AND M.LastServicedAgent not in ('VA','IVR','ChatBot')
+   LEFT JOIN
+   (
+     SELECT   SessionID, isnull(sum(ISTRANSFERED),0) AS ISCHATTRANSFERED,isnull(sum(ISCONFERENCED),0) AS ISCHATCONFERENCED, 
+     isnull(sum(AgentWaitTimeForResponse),0) as AGENTWAITTIME , isnull(sum(UserWaitTimeForResponse),0) as USERWAITTIME from TMAC_Interactions with(nolock) 
+     WHERE (Channel='Chat' or Channel='TextChat')  GROUP BY SESSIONID
+   ) 
+   CHAT ON CHAT.SessionID=H.SessionID 
+   LEFT JOIN
+   (
+    SELECT  SessionID,MIN(INTERACTIONDATE+INTERACTIONTIME) AS StartDateTime,
+    MAX(INTERACTIONDATE+INTERACTIONTIME) AS EndDateTime FROM GBL_INTERACTIONHISTORY with(nolock) WHERE (Channel='Chat' or Channel='TextChat') 
+    GROUP BY SESSIONID
+   ) 
+   INTDATETIME ON INTDATETIME.SessionID = H.SessionID  
+   LEFT JOIN
+   (
+    SELECT  SessionID,INTERACTIONDATE+INTERACTIONTIME AS DurEndDateTime,substring (InteractionText ,charindex(':',InteractionText)+1,500) AS CHATENDREASON 
+    FROM GBL_INTERACTIONHISTORY with(nolock) WHERE ID IN ( SELECT  MAX(id) as ID from GBL_INTERACTIONHISTORY with(nolock)  
+    WHERE (Channel='Chat' or Channel='TextChat')  AND (INTERACTIONTEXT like '_RemoteEndDisconnected%'  OR INTERACTIONTEXT like '_RemoteEndClosed%' OR INTERACTIONTEXT like '_Agent-EndTextChat%')
+    GROUP BY SESSIONID) GROUP BY SESSIONID,INTERACTIONDATE,INTERACTIONTIME,InteractionText
+   ) 
+   INTDURTIME ON INTDURTIME.SessionID = H.SessionID  
+   LEFT JOIN 
+   ( 
+     Select SessionID, COUNT(1) as CallbackCount FROM IVR_CALLBACK_REQUESTS R with(nolock)
+     JOIN TMAC_Interactions C with(nolock) on C.SubSessionId  = R.UCID 
+     GROUP By SessionID
+   ) 
+   TabCallback on TabCallback.SessionID = H.SessionID 
+   INNER JOIN
+   (
+     SELECT  min(id) as ID,SESSIONID from GBL_INTERACTIONHISTORY with(nolock)  WHERE (Channel='Chat' or Channel='TextChat')
+     GROUP BY SESSIONID
+   )
+   HID ON HID.SESSIONID = H.SESSIONID AND HID.ID=H.ID
+   WHERE IsTransfered=0 AND IsConferenced=0  AND (H.Channel='Chat' or H.Channel='TextChat') 
+   AND I.ClosedDateTime &gt;= 'ReportBeforeDate' AND I.ClosedDateTime &lt;= 'ReportAfterDate'
+   AND I.CreatedDateTime in ( SELECT  min(CreatedDateTime) as id from TMAC_Interactions with(nolock)  WHERE  (Channel='Chat' or Channel='TextChat') 
+   AND CALLCONNECTEDTIME != '00010101000000' 
+   AND ClosedDateTime &gt;= 'ReportBeforeDate' AND ClosedDateTime &lt;= 'ReportAfterDate'
+   GROUP BY SESSIONID)
+   GROUP BY H.sessionid,INTENTNAME,TabCallback.CallbackCount,CustomData,CHAT.AGENTWAITTIME,CHAT.USERWAITTIME,
+   QUEUETIME,StartDateTime,EndDateTime,CIF,ISCHATTRANSFERED,ISCHATCONFERENCED,H.ID,
+   I.AgentID,INTDURTIME.DurEndDateTime,I.Subchannel,INTDURTIME.CHATENDREASON,I.OtherData) M
+   Order by M.StartDateTime;
+</t>
   </si>
 </sst>
 </file>
@@ -202,10 +289,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -478,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,7 +639,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
@@ -762,7 +858,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -772,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,4 +1313,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>